--- a/nodes_source_analyses/agriculture/agriculture_geothermal.converter.xlsx
+++ b/nodes_source_analyses/agriculture/agriculture_geothermal.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/agriculture/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -275,9 +283,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -438,14 +443,38 @@
       <t>th</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> rake import:node NODE="nodename"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the button to update the node attributes on ETSource. 
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -595,11 +624,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -636,6 +660,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1235,11 +1265,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1295,55 +1325,55 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1352,7 +1382,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1365,12 +1395,12 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1382,7 +1412,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1398,10 +1428,10 @@
     <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1411,10 +1441,10 @@
     <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1440,14 +1470,14 @@
     <xf numFmtId="2" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1457,31 +1487,31 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1742,80 +1772,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1897,7 +1862,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2338,50 +2303,50 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="23" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="23"/>
+    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="23" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1">
+    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>19</v>
@@ -2390,29 +2355,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="75" t="s">
         <v>63</v>
       </c>
       <c r="C9" s="76"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="77"/>
       <c r="C10" s="78"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="77" t="s">
         <v>64</v>
@@ -2421,33 +2386,33 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="77"/>
       <c r="C12" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="77"/>
       <c r="C13" s="80" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="77"/>
       <c r="C14" s="78" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="77"/>
       <c r="C15" s="78"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="77" t="s">
         <v>69</v>
@@ -2456,49 +2421,49 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="77"/>
       <c r="C17" s="82" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="77"/>
       <c r="C18" s="83" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="77"/>
       <c r="C19" s="84" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="85"/>
       <c r="C20" s="86" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="85"/>
       <c r="C21" s="87" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="85"/>
       <c r="C22" s="88" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="85"/>
       <c r="C23" s="89" t="s">
         <v>77</v>
@@ -2507,49 +2472,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="37" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="37" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="37" customWidth="1"/>
     <col min="3" max="3" width="46" style="37" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="37" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="37" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="37" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="37" customWidth="1"/>
     <col min="7" max="7" width="45" style="37" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="37" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="37" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="37" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="37"/>
+    <col min="8" max="8" width="5.140625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="37" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="37" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="144" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="C2" s="145"/>
       <c r="D2" s="145"/>
@@ -2557,7 +2517,7 @@
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="147"/>
       <c r="C3" s="148"/>
       <c r="D3" s="148"/>
@@ -2565,7 +2525,7 @@
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="150"/>
       <c r="C4" s="151"/>
       <c r="D4" s="151"/>
@@ -2573,10 +2533,13 @@
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="35"/>
-    </row>
-    <row r="6" spans="2:11">
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="38"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -2587,7 +2550,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="39"/>
     </row>
-    <row r="7" spans="2:11" s="44" customFormat="1" ht="18">
+    <row r="7" spans="2:11" s="44" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="90"/>
       <c r="C7" s="21" t="s">
         <v>31</v>
@@ -2608,7 +2571,7 @@
       </c>
       <c r="J7" s="97"/>
     </row>
-    <row r="8" spans="2:11" s="44" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="44" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="25"/>
       <c r="C8" s="20"/>
       <c r="D8" s="32"/>
@@ -2619,10 +2582,10 @@
       <c r="I8" s="20"/>
       <c r="J8" s="45"/>
     </row>
-    <row r="9" spans="2:11" s="44" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25"/>
       <c r="C9" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="20"/>
@@ -2632,7 +2595,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="45"/>
     </row>
-    <row r="10" spans="2:11" ht="16" thickBot="1">
+    <row r="10" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="40"/>
       <c r="C10" s="36" t="s">
         <v>33</v>
@@ -2652,7 +2615,7 @@
       <c r="J10" s="98"/>
       <c r="K10" s="35"/>
     </row>
-    <row r="11" spans="2:11" ht="16" thickBot="1">
+    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="40"/>
       <c r="C11" s="36" t="s">
         <v>35</v>
@@ -2672,10 +2635,10 @@
       <c r="J11" s="98"/>
       <c r="K11" s="35"/>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1">
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="40"/>
       <c r="C12" s="137" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>5</v>
@@ -2692,7 +2655,7 @@
       <c r="J12" s="98"/>
       <c r="K12" s="35"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="40"/>
       <c r="C13" s="36" t="s">
         <v>10</v>
@@ -2712,7 +2675,7 @@
       <c r="J13" s="98"/>
       <c r="K13" s="35"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="40"/>
       <c r="C14" s="36" t="s">
         <v>37</v>
@@ -2732,7 +2695,7 @@
       <c r="J14" s="98"/>
       <c r="K14" s="35"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="40"/>
       <c r="C15" s="36" t="s">
         <v>38</v>
@@ -2752,7 +2715,7 @@
       <c r="J15" s="98"/>
       <c r="K15" s="35"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="40"/>
       <c r="C16" s="36" t="s">
         <v>39</v>
@@ -2773,7 +2736,7 @@
       </c>
       <c r="J16" s="98"/>
     </row>
-    <row r="17" spans="2:10" ht="16" thickBot="1">
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="40"/>
       <c r="C17" s="36" t="s">
         <v>40</v>
@@ -2795,7 +2758,7 @@
       </c>
       <c r="J17" s="98"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="40"/>
       <c r="C18" s="73"/>
       <c r="D18" s="93"/>
@@ -2806,10 +2769,10 @@
       <c r="I18" s="35"/>
       <c r="J18" s="98"/>
     </row>
-    <row r="19" spans="2:10" ht="16" thickBot="1">
+    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="40"/>
       <c r="C19" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="93"/>
       <c r="E19" s="94"/>
@@ -2819,7 +2782,7 @@
       <c r="I19" s="35"/>
       <c r="J19" s="98"/>
     </row>
-    <row r="20" spans="2:10" ht="16" thickBot="1">
+    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="40"/>
       <c r="C20" s="36" t="s">
         <v>41</v>
@@ -2837,11 +2800,11 @@
       </c>
       <c r="H20" s="36"/>
       <c r="I20" s="133" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J20" s="98"/>
     </row>
-    <row r="21" spans="2:10" ht="16" thickBot="1">
+    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="40"/>
       <c r="C21" s="36" t="s">
         <v>42</v>
@@ -2862,7 +2825,7 @@
       </c>
       <c r="J21" s="98"/>
     </row>
-    <row r="22" spans="2:10" ht="16" thickBot="1">
+    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="40"/>
       <c r="C22" s="36" t="s">
         <v>11</v>
@@ -2883,7 +2846,7 @@
       </c>
       <c r="J22" s="98"/>
     </row>
-    <row r="23" spans="2:10" ht="16" thickBot="1">
+    <row r="23" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="40"/>
       <c r="C23" s="36" t="s">
         <v>43</v>
@@ -2904,7 +2867,7 @@
       </c>
       <c r="J23" s="98"/>
     </row>
-    <row r="24" spans="2:10" ht="16" thickBot="1">
+    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="40"/>
       <c r="C24" s="36" t="s">
         <v>44</v>
@@ -2922,11 +2885,11 @@
       </c>
       <c r="H24" s="36"/>
       <c r="I24" s="133" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J24" s="98"/>
     </row>
-    <row r="25" spans="2:10" ht="16" thickBot="1">
+    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="40"/>
       <c r="C25" s="36" t="s">
         <v>45</v>
@@ -2948,7 +2911,7 @@
       </c>
       <c r="J25" s="98"/>
     </row>
-    <row r="26" spans="2:10" ht="16" thickBot="1">
+    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="40"/>
       <c r="C26" s="36" t="s">
         <v>46</v>
@@ -2969,7 +2932,7 @@
       </c>
       <c r="J26" s="98"/>
     </row>
-    <row r="27" spans="2:10" ht="16" thickBot="1">
+    <row r="27" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="40"/>
       <c r="C27" s="36" t="s">
         <v>49</v>
@@ -2990,7 +2953,7 @@
       </c>
       <c r="J27" s="98"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="40"/>
       <c r="C28" s="36"/>
       <c r="D28" s="24"/>
@@ -3001,7 +2964,7 @@
       <c r="I28" s="35"/>
       <c r="J28" s="98"/>
     </row>
-    <row r="29" spans="2:10" ht="16" thickBot="1">
+    <row r="29" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="40"/>
       <c r="C29" s="20" t="s">
         <v>8</v>
@@ -3014,7 +2977,7 @@
       <c r="I29" s="35"/>
       <c r="J29" s="98"/>
     </row>
-    <row r="30" spans="2:10" ht="16" thickBot="1">
+    <row r="30" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="40"/>
       <c r="C30" s="36" t="s">
         <v>36</v>
@@ -3035,7 +2998,7 @@
       </c>
       <c r="J30" s="98"/>
     </row>
-    <row r="31" spans="2:10" ht="16" thickBot="1">
+    <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="40"/>
       <c r="C31" s="36" t="s">
         <v>47</v>
@@ -3053,11 +3016,11 @@
       </c>
       <c r="H31" s="36"/>
       <c r="I31" s="134" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J31" s="98"/>
     </row>
-    <row r="32" spans="2:10" ht="16" thickBot="1">
+    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="40"/>
       <c r="C32" s="36" t="s">
         <v>48</v>
@@ -3075,11 +3038,11 @@
       </c>
       <c r="H32" s="36"/>
       <c r="I32" s="143" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J32" s="98"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="40"/>
       <c r="C33" s="36" t="s">
         <v>34</v>
@@ -3098,7 +3061,7 @@
       </c>
       <c r="J33" s="98"/>
     </row>
-    <row r="34" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="34" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
       <c r="D34" s="42"/>
@@ -3115,43 +3078,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3166,26 +3092,25 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="104" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="104" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="104" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="104" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="104" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="104" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="104" customWidth="1"/>
-    <col min="8" max="8" width="3.125" style="104" customWidth="1"/>
-    <col min="9" max="9" width="8.375" style="105" customWidth="1"/>
-    <col min="10" max="10" width="2.375" style="105" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="105" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="104" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="104" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="104" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="104" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="104" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="104" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" style="104" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="105" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="105" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="105" customWidth="1"/>
     <col min="12" max="12" width="3" style="105" customWidth="1"/>
     <col min="13" max="13" width="60" style="104" customWidth="1"/>
-    <col min="14" max="16384" width="10.625" style="104"/>
+    <col min="14" max="16384" width="10.7109375" style="104"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="16" thickBot="1"/>
-    <row r="2" spans="2:13">
+    <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="106"/>
       <c r="C2" s="107"/>
       <c r="D2" s="107"/>
@@ -3199,10 +3124,10 @@
       <c r="L2" s="108"/>
       <c r="M2" s="109"/>
     </row>
-    <row r="3" spans="2:13" s="26" customFormat="1">
+    <row r="3" spans="2:13" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="25"/>
       <c r="C3" s="100" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
@@ -3214,18 +3139,18 @@
       </c>
       <c r="H3" s="100"/>
       <c r="I3" s="69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J3" s="69"/>
       <c r="K3" s="69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L3" s="69"/>
       <c r="M3" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="110"/>
       <c r="C4" s="111"/>
       <c r="D4" s="111"/>
@@ -3239,10 +3164,10 @@
       <c r="L4" s="99"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" ht="16" thickBot="1">
+    <row r="5" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="110"/>
       <c r="C5" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
@@ -3255,15 +3180,15 @@
       <c r="L5" s="16"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="2:13" ht="16" thickBot="1">
+    <row r="6" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="110"/>
       <c r="C6" s="135" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="102"/>
       <c r="E6" s="102"/>
       <c r="F6" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G6" s="136">
         <f>ROUND(8.5,1)</f>
@@ -3279,7 +3204,7 @@
       <c r="L6" s="112"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="110"/>
       <c r="C7" s="115"/>
       <c r="D7" s="115"/>
@@ -3293,7 +3218,7 @@
       <c r="L7" s="117"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="2:13" ht="16" thickBot="1">
+    <row r="8" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="110"/>
       <c r="C8" s="33" t="s">
         <v>8</v>
@@ -3309,7 +3234,7 @@
       <c r="L8" s="116"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="2:13" ht="16" thickBot="1">
+    <row r="9" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="110"/>
       <c r="C9" s="119" t="s">
         <v>1</v>
@@ -3332,10 +3257,10 @@
       </c>
       <c r="L9" s="116"/>
       <c r="M9" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="16" thickBot="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="110"/>
       <c r="C10" s="120" t="s">
         <v>6</v>
@@ -3362,7 +3287,7 @@
       <c r="L10" s="116"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="110"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
@@ -3376,10 +3301,10 @@
       <c r="L11" s="116"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="2:13" ht="16" thickBot="1">
+    <row r="12" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="110"/>
       <c r="C12" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -3392,10 +3317,10 @@
       <c r="L12" s="116"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="2:13" ht="16" thickBot="1">
+    <row r="13" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="110"/>
       <c r="C13" s="102" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -3413,7 +3338,7 @@
       <c r="L13" s="116"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="2:13" ht="16" thickBot="1">
+    <row r="14" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="110"/>
       <c r="C14" s="122" t="s">
         <v>9</v>
@@ -3421,7 +3346,7 @@
       <c r="D14" s="122"/>
       <c r="E14" s="122"/>
       <c r="F14" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G14" s="118">
         <v>800</v>
@@ -3436,10 +3361,10 @@
       <c r="L14" s="132"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="2:13" ht="16" thickBot="1">
+    <row r="15" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="110"/>
       <c r="C15" s="102" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
@@ -3457,15 +3382,15 @@
       <c r="L15" s="116"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="2:13" ht="16" thickBot="1">
+    <row r="16" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="110"/>
       <c r="C16" s="102" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="111" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G16" s="103">
         <v>50</v>
@@ -3480,10 +3405,10 @@
       <c r="L16" s="116"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="2:13" ht="16" thickBot="1">
+    <row r="17" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="110"/>
       <c r="C17" s="102" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="123"/>
       <c r="E17" s="123"/>
@@ -3500,10 +3425,10 @@
       <c r="L17" s="116"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="2:13" ht="16" thickBot="1">
+    <row r="18" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="110"/>
       <c r="C18" s="102" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="124"/>
       <c r="E18" s="124"/>
@@ -3520,7 +3445,7 @@
       <c r="L18" s="116"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="2:13" ht="16" thickBot="1">
+    <row r="19" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="126"/>
       <c r="C19" s="127"/>
       <c r="D19" s="127"/>
@@ -3537,11 +3462,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3556,22 +3476,22 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="48" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="48" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="48" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="48" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="48" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="48" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="48" customWidth="1"/>
-    <col min="10" max="10" width="35.125" style="49" customWidth="1"/>
-    <col min="11" max="11" width="60.5" style="48" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="48"/>
+    <col min="1" max="1" width="3.28515625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="48" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="48" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="48" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="48" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="60.42578125" style="48" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -3583,7 +3503,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="51"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="53"/>
       <c r="C3" s="54" t="s">
         <v>21</v>
@@ -3597,7 +3517,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="53"/>
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
@@ -3609,7 +3529,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="58"/>
       <c r="C5" s="59" t="s">
         <v>29</v>
@@ -3625,19 +3545,19 @@
         <v>30</v>
       </c>
       <c r="H5" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I5" s="59" t="s">
         <v>58</v>
       </c>
       <c r="J5" s="60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K5" s="59" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="53"/>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -3649,31 +3569,31 @@
       <c r="J6" s="55"/>
       <c r="K6" s="54"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="53"/>
       <c r="C7" s="67"/>
       <c r="D7" s="61"/>
       <c r="E7" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" s="56" t="s">
         <v>60</v>
       </c>
       <c r="G7" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H7" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I7" s="57"/>
       <c r="J7" s="57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K7" s="71" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="53"/>
       <c r="C8" s="62" t="s">
         <v>1</v>
@@ -3687,7 +3607,7 @@
       <c r="J8" s="57"/>
       <c r="K8" s="72"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="53"/>
       <c r="C9" s="61" t="s">
         <v>61</v>
@@ -3701,7 +3621,7 @@
       <c r="J9" s="57"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="53"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
@@ -3713,12 +3633,12 @@
       <c r="J10" s="64"/>
       <c r="K10" s="61"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="53"/>
       <c r="C11" s="61"/>
       <c r="D11" s="61"/>
       <c r="E11" s="56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F11" s="61" t="s">
         <v>60</v>
@@ -3731,16 +3651,16 @@
       </c>
       <c r="I11" s="61"/>
       <c r="J11" s="68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K11" s="65" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="53"/>
       <c r="C12" s="62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="61"/>
       <c r="E12" s="56"/>
@@ -3751,10 +3671,10 @@
       <c r="J12" s="68"/>
       <c r="K12" s="65"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="53"/>
       <c r="C13" s="62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="61"/>
       <c r="E13" s="56"/>
@@ -3765,7 +3685,7 @@
       <c r="J13" s="68"/>
       <c r="K13" s="61"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="53"/>
       <c r="C14" s="62" t="s">
         <v>6</v>
@@ -3779,10 +3699,10 @@
       <c r="J14" s="68"/>
       <c r="K14" s="61"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="53"/>
       <c r="C15" s="62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" s="61"/>
       <c r="E15" s="56"/>
@@ -3799,11 +3719,6 @@
   <ignoredErrors>
     <ignoredError sqref="G7:H7" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3816,22 +3731,22 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="138" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="138" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="138" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="138"/>
+    <col min="1" max="1" width="5.28515625" style="138" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="138" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="138" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="138"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="16" thickBot="1"/>
-    <row r="2" spans="2:13" s="26" customFormat="1">
+    <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="139"/>
       <c r="C2" s="140" t="s">
         <v>73</v>
       </c>
       <c r="D2" s="140" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" s="140"/>
       <c r="F2" s="140"/>
@@ -3843,7 +3758,7 @@
       <c r="L2" s="140"/>
       <c r="M2" s="140"/>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="141"/>
       <c r="C3" s="142"/>
       <c r="D3" s="142"/>
@@ -3857,10 +3772,10 @@
       <c r="L3" s="142"/>
       <c r="M3" s="142"/>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="141"/>
       <c r="C4" s="142" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="142"/>
       <c r="E4" s="142"/>
@@ -3873,10 +3788,10 @@
       <c r="L4" s="142"/>
       <c r="M4" s="142"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="141"/>
       <c r="C5" s="142" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="142"/>
       <c r="E5" s="142"/>
@@ -3889,7 +3804,7 @@
       <c r="L5" s="142"/>
       <c r="M5" s="142"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="141"/>
       <c r="C6" s="142"/>
       <c r="D6" s="142"/>
@@ -3903,7 +3818,7 @@
       <c r="L6" s="142"/>
       <c r="M6" s="142"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="141"/>
       <c r="C7" s="142"/>
       <c r="D7" s="142"/>
@@ -3917,7 +3832,7 @@
       <c r="L7" s="142"/>
       <c r="M7" s="142"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="141"/>
       <c r="C8" s="142"/>
       <c r="D8" s="142"/>
@@ -3931,7 +3846,7 @@
       <c r="L8" s="142"/>
       <c r="M8" s="142"/>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="141"/>
       <c r="C9" s="142"/>
       <c r="D9" s="142"/>
@@ -3945,7 +3860,7 @@
       <c r="L9" s="142"/>
       <c r="M9" s="142"/>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="141"/>
       <c r="C10" s="142"/>
       <c r="D10" s="142"/>
@@ -3959,7 +3874,7 @@
       <c r="L10" s="142"/>
       <c r="M10" s="142"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="141"/>
       <c r="C11" s="142"/>
       <c r="D11" s="142"/>
@@ -3973,7 +3888,7 @@
       <c r="L11" s="142"/>
       <c r="M11" s="142"/>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="141"/>
       <c r="C12" s="142"/>
       <c r="D12" s="142"/>
@@ -3987,7 +3902,7 @@
       <c r="L12" s="142"/>
       <c r="M12" s="142"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="141"/>
       <c r="C13" s="142"/>
       <c r="D13" s="142"/>
@@ -4001,7 +3916,7 @@
       <c r="L13" s="142"/>
       <c r="M13" s="142"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="141"/>
       <c r="C14" s="142"/>
       <c r="D14" s="142"/>
@@ -4015,7 +3930,7 @@
       <c r="L14" s="142"/>
       <c r="M14" s="142"/>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="141"/>
       <c r="C15" s="142"/>
       <c r="D15" s="142"/>
@@ -4029,7 +3944,7 @@
       <c r="L15" s="142"/>
       <c r="M15" s="142"/>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="141"/>
       <c r="C16" s="142"/>
       <c r="D16" s="142"/>
@@ -4043,7 +3958,7 @@
       <c r="L16" s="142"/>
       <c r="M16" s="142"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="141"/>
       <c r="C17" s="142"/>
       <c r="D17" s="142">
@@ -4061,16 +3976,16 @@
       <c r="L17" s="142"/>
       <c r="M17" s="142"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="141"/>
       <c r="C18" s="142" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="142">
         <v>800</v>
       </c>
       <c r="E18" s="142" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F18" s="142"/>
       <c r="G18" s="142"/>
@@ -4081,16 +3996,16 @@
       <c r="L18" s="142"/>
       <c r="M18" s="142"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="141"/>
       <c r="C19" s="142" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" s="142">
         <v>50</v>
       </c>
       <c r="E19" s="142" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F19" s="142"/>
       <c r="G19" s="142"/>
@@ -4101,16 +4016,16 @@
       <c r="L19" s="142"/>
       <c r="M19" s="142"/>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="141"/>
       <c r="C20" s="142" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D20" s="142">
         <v>30</v>
       </c>
       <c r="E20" s="142" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F20" s="142"/>
       <c r="G20" s="142"/>
@@ -4121,7 +4036,7 @@
       <c r="L20" s="142"/>
       <c r="M20" s="142"/>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="141"/>
       <c r="C21" s="142"/>
       <c r="D21" s="142"/>
@@ -4135,7 +4050,7 @@
       <c r="L21" s="142"/>
       <c r="M21" s="142"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="141"/>
       <c r="C22" s="142"/>
       <c r="D22" s="142"/>
@@ -4149,7 +4064,7 @@
       <c r="L22" s="142"/>
       <c r="M22" s="142"/>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="141"/>
       <c r="C23" s="142"/>
       <c r="D23" s="142"/>
@@ -4163,7 +4078,7 @@
       <c r="L23" s="142"/>
       <c r="M23" s="142"/>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="141"/>
       <c r="C24" s="142"/>
       <c r="D24" s="142"/>
@@ -4177,7 +4092,7 @@
       <c r="L24" s="142"/>
       <c r="M24" s="142"/>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="141"/>
       <c r="C25" s="142"/>
       <c r="D25" s="142"/>
@@ -4191,7 +4106,7 @@
       <c r="L25" s="142"/>
       <c r="M25" s="142"/>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="141"/>
       <c r="C26" s="142"/>
       <c r="D26" s="142"/>
@@ -4205,7 +4120,7 @@
       <c r="L26" s="142"/>
       <c r="M26" s="142"/>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="141"/>
       <c r="C27" s="142"/>
       <c r="D27" s="142"/>
@@ -4219,7 +4134,7 @@
       <c r="L27" s="142"/>
       <c r="M27" s="142"/>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="141"/>
       <c r="C28" s="142"/>
       <c r="D28" s="142"/>
@@ -4233,7 +4148,7 @@
       <c r="L28" s="142"/>
       <c r="M28" s="142"/>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="141"/>
       <c r="C29" s="142"/>
       <c r="D29" s="142"/>
@@ -4247,7 +4162,7 @@
       <c r="L29" s="142"/>
       <c r="M29" s="142"/>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="141"/>
       <c r="C30" s="142"/>
       <c r="D30" s="142"/>
@@ -4261,10 +4176,10 @@
       <c r="L30" s="142"/>
       <c r="M30" s="142"/>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="141"/>
       <c r="C31" s="142" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="142"/>
       <c r="E31" s="142"/>
@@ -4277,10 +4192,10 @@
       <c r="L31" s="142"/>
       <c r="M31" s="142"/>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="141"/>
       <c r="C32" s="142" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D32" s="142"/>
       <c r="E32" s="142"/>
@@ -4293,7 +4208,7 @@
       <c r="L32" s="142"/>
       <c r="M32" s="142"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="141"/>
       <c r="C33" s="142"/>
       <c r="D33" s="142"/>
@@ -4307,7 +4222,7 @@
       <c r="L33" s="142"/>
       <c r="M33" s="142"/>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="141"/>
       <c r="C34" s="142"/>
       <c r="D34" s="142"/>
@@ -4321,7 +4236,7 @@
       <c r="L34" s="142"/>
       <c r="M34" s="142"/>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="141"/>
       <c r="C35" s="142"/>
       <c r="D35" s="142"/>
@@ -4335,7 +4250,7 @@
       <c r="L35" s="142"/>
       <c r="M35" s="142"/>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="141"/>
       <c r="C36" s="142"/>
       <c r="D36" s="142"/>
@@ -4349,7 +4264,7 @@
       <c r="L36" s="142"/>
       <c r="M36" s="142"/>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="141"/>
       <c r="C37" s="142"/>
       <c r="D37" s="142"/>
@@ -4363,7 +4278,7 @@
       <c r="L37" s="142"/>
       <c r="M37" s="142"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="141"/>
       <c r="C38" s="142"/>
       <c r="D38" s="142"/>
@@ -4377,7 +4292,7 @@
       <c r="L38" s="142"/>
       <c r="M38" s="142"/>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="141"/>
       <c r="C39" s="142"/>
       <c r="D39" s="142"/>
@@ -4391,7 +4306,7 @@
       <c r="L39" s="142"/>
       <c r="M39" s="142"/>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="141"/>
       <c r="C40" s="142"/>
       <c r="D40" s="142"/>
@@ -4405,7 +4320,7 @@
       <c r="L40" s="142"/>
       <c r="M40" s="142"/>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="141"/>
       <c r="C41" s="142"/>
       <c r="D41" s="142"/>
@@ -4419,16 +4334,16 @@
       <c r="L41" s="142"/>
       <c r="M41" s="142"/>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="141"/>
       <c r="C42" s="142" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D42" s="142">
         <v>24</v>
       </c>
       <c r="E42" s="142" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F42" s="142"/>
       <c r="G42" s="142"/>
@@ -4439,16 +4354,16 @@
       <c r="L42" s="142"/>
       <c r="M42" s="142"/>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="141"/>
       <c r="C43" s="142" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D43" s="142">
         <v>30</v>
       </c>
       <c r="E43" s="142" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F43" s="142"/>
       <c r="G43" s="142"/>
@@ -4459,7 +4374,7 @@
       <c r="L43" s="142"/>
       <c r="M43" s="142"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="141"/>
       <c r="C44" s="142"/>
       <c r="D44" s="142"/>
@@ -4473,7 +4388,7 @@
       <c r="L44" s="142"/>
       <c r="M44" s="142"/>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="141"/>
       <c r="C45" s="142"/>
       <c r="D45" s="142"/>
@@ -4487,7 +4402,7 @@
       <c r="L45" s="142"/>
       <c r="M45" s="142"/>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="141"/>
       <c r="C46" s="142"/>
       <c r="D46" s="142"/>
@@ -4501,7 +4416,7 @@
       <c r="L46" s="142"/>
       <c r="M46" s="142"/>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="141"/>
       <c r="C47" s="142"/>
       <c r="D47" s="142"/>
@@ -4515,7 +4430,7 @@
       <c r="L47" s="142"/>
       <c r="M47" s="142"/>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" s="141"/>
       <c r="C48" s="142"/>
       <c r="D48" s="142"/>
@@ -4529,7 +4444,7 @@
       <c r="L48" s="142"/>
       <c r="M48" s="142"/>
     </row>
-    <row r="49" spans="2:13">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" s="141"/>
       <c r="C49" s="142"/>
       <c r="D49" s="142"/>
@@ -4543,7 +4458,7 @@
       <c r="L49" s="142"/>
       <c r="M49" s="142"/>
     </row>
-    <row r="50" spans="2:13">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50" s="141"/>
       <c r="C50" s="142"/>
       <c r="D50" s="142"/>
@@ -4560,10 +4475,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/agriculture/agriculture_geothermal.converter.xlsx
+++ b/nodes_source_analyses/agriculture/agriculture_geothermal.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/agriculture/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/agriculture/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1F55C6-BE3D-8C40-A245-B10F1F35CCB0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="179017" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -453,6 +454,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> rake import:node NODE="nodename"</t>
     </r>
@@ -471,17 +473,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -600,6 +609,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -607,6 +617,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -614,6 +625,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -621,6 +633,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -628,6 +641,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -635,17 +649,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -659,6 +676,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -666,6 +684,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1000,518 +1019,518 @@
   </borders>
   <cellStyleXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1776,6 +1795,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1797,7 +1819,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1835,7 +1863,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2295,40 +2329,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="23" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="23"/>
+    <col min="1" max="1" width="3.5" style="31" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="23" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="29" customFormat="1">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="7"/>
       <c r="B2" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>17</v>
@@ -2337,7 +2371,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>62</v>
@@ -2346,7 +2380,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>19</v>
@@ -2355,29 +2389,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="7"/>
       <c r="B9" s="75" t="s">
         <v>63</v>
       </c>
       <c r="C9" s="76"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="7"/>
       <c r="B10" s="77"/>
       <c r="C10" s="78"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="7"/>
       <c r="B11" s="77" t="s">
         <v>64</v>
@@ -2386,33 +2420,33 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="7"/>
       <c r="B12" s="77"/>
       <c r="C12" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="7"/>
       <c r="B13" s="77"/>
       <c r="C13" s="80" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="7"/>
       <c r="B14" s="77"/>
       <c r="C14" s="78" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="7"/>
       <c r="B15" s="77"/>
       <c r="C15" s="78"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="7"/>
       <c r="B16" s="77" t="s">
         <v>69</v>
@@ -2421,49 +2455,49 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="7"/>
       <c r="B17" s="77"/>
       <c r="C17" s="82" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="7"/>
       <c r="B18" s="77"/>
       <c r="C18" s="83" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="7"/>
       <c r="B19" s="77"/>
       <c r="C19" s="84" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="7"/>
       <c r="B20" s="85"/>
       <c r="C20" s="86" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="7"/>
       <c r="B21" s="85"/>
       <c r="C21" s="87" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="7"/>
       <c r="B22" s="85"/>
       <c r="C22" s="88" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" s="85"/>
       <c r="C23" s="89" t="s">
         <v>77</v>
@@ -2476,38 +2510,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="37" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="37" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="37" customWidth="1"/>
     <col min="3" max="3" width="46" style="37" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="37" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="37" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="37" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="37" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="37" customWidth="1"/>
     <col min="7" max="7" width="45" style="37" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="37" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="37" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="37" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="37"/>
+    <col min="8" max="8" width="5.1640625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="37" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="37" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11">
       <c r="B2" s="144" t="s">
         <v>120</v>
       </c>
@@ -2517,7 +2551,7 @@
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="147"/>
       <c r="C3" s="148"/>
       <c r="D3" s="148"/>
@@ -2525,7 +2559,7 @@
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" ht="34" customHeight="1">
       <c r="B4" s="150"/>
       <c r="C4" s="151"/>
       <c r="D4" s="151"/>
@@ -2533,13 +2567,13 @@
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="17" thickBot="1">
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="38"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -2550,7 +2584,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="39"/>
     </row>
-    <row r="7" spans="2:11" s="44" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" s="44" customFormat="1" ht="19">
       <c r="B7" s="90"/>
       <c r="C7" s="21" t="s">
         <v>31</v>
@@ -2571,7 +2605,7 @@
       </c>
       <c r="J7" s="97"/>
     </row>
-    <row r="8" spans="2:11" s="44" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" s="44" customFormat="1" ht="19">
       <c r="B8" s="25"/>
       <c r="C8" s="20"/>
       <c r="D8" s="32"/>
@@ -2582,7 +2616,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="45"/>
     </row>
-    <row r="9" spans="2:11" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" s="44" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="25"/>
       <c r="C9" s="20" t="s">
         <v>89</v>
@@ -2595,7 +2629,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="45"/>
     </row>
-    <row r="10" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="17" thickBot="1">
       <c r="B10" s="40"/>
       <c r="C10" s="36" t="s">
         <v>33</v>
@@ -2615,7 +2649,7 @@
       <c r="J10" s="98"/>
       <c r="K10" s="35"/>
     </row>
-    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="17" thickBot="1">
       <c r="B11" s="40"/>
       <c r="C11" s="36" t="s">
         <v>35</v>
@@ -2635,7 +2669,7 @@
       <c r="J11" s="98"/>
       <c r="K11" s="35"/>
     </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="40"/>
       <c r="C12" s="137" t="s">
         <v>98</v>
@@ -2655,7 +2689,7 @@
       <c r="J12" s="98"/>
       <c r="K12" s="35"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="40"/>
       <c r="C13" s="36" t="s">
         <v>10</v>
@@ -2675,7 +2709,7 @@
       <c r="J13" s="98"/>
       <c r="K13" s="35"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="40"/>
       <c r="C14" s="36" t="s">
         <v>37</v>
@@ -2695,7 +2729,7 @@
       <c r="J14" s="98"/>
       <c r="K14" s="35"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="40"/>
       <c r="C15" s="36" t="s">
         <v>38</v>
@@ -2715,7 +2749,7 @@
       <c r="J15" s="98"/>
       <c r="K15" s="35"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="40"/>
       <c r="C16" s="36" t="s">
         <v>39</v>
@@ -2736,7 +2770,7 @@
       </c>
       <c r="J16" s="98"/>
     </row>
-    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="40"/>
       <c r="C17" s="36" t="s">
         <v>40</v>
@@ -2758,7 +2792,7 @@
       </c>
       <c r="J17" s="98"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="40"/>
       <c r="C18" s="73"/>
       <c r="D18" s="93"/>
@@ -2769,7 +2803,7 @@
       <c r="I18" s="35"/>
       <c r="J18" s="98"/>
     </row>
-    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="17" thickBot="1">
       <c r="B19" s="40"/>
       <c r="C19" s="20" t="s">
         <v>78</v>
@@ -2782,7 +2816,7 @@
       <c r="I19" s="35"/>
       <c r="J19" s="98"/>
     </row>
-    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="17" thickBot="1">
       <c r="B20" s="40"/>
       <c r="C20" s="36" t="s">
         <v>41</v>
@@ -2804,7 +2838,7 @@
       </c>
       <c r="J20" s="98"/>
     </row>
-    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="17" thickBot="1">
       <c r="B21" s="40"/>
       <c r="C21" s="36" t="s">
         <v>42</v>
@@ -2825,7 +2859,7 @@
       </c>
       <c r="J21" s="98"/>
     </row>
-    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="17" thickBot="1">
       <c r="B22" s="40"/>
       <c r="C22" s="36" t="s">
         <v>11</v>
@@ -2846,7 +2880,7 @@
       </c>
       <c r="J22" s="98"/>
     </row>
-    <row r="23" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="B23" s="40"/>
       <c r="C23" s="36" t="s">
         <v>43</v>
@@ -2867,7 +2901,7 @@
       </c>
       <c r="J23" s="98"/>
     </row>
-    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="17" thickBot="1">
       <c r="B24" s="40"/>
       <c r="C24" s="36" t="s">
         <v>44</v>
@@ -2889,7 +2923,7 @@
       </c>
       <c r="J24" s="98"/>
     </row>
-    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="17" thickBot="1">
       <c r="B25" s="40"/>
       <c r="C25" s="36" t="s">
         <v>45</v>
@@ -2911,7 +2945,7 @@
       </c>
       <c r="J25" s="98"/>
     </row>
-    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="17" thickBot="1">
       <c r="B26" s="40"/>
       <c r="C26" s="36" t="s">
         <v>46</v>
@@ -2932,7 +2966,7 @@
       </c>
       <c r="J26" s="98"/>
     </row>
-    <row r="27" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="17" thickBot="1">
       <c r="B27" s="40"/>
       <c r="C27" s="36" t="s">
         <v>49</v>
@@ -2953,7 +2987,7 @@
       </c>
       <c r="J27" s="98"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10">
       <c r="B28" s="40"/>
       <c r="C28" s="36"/>
       <c r="D28" s="24"/>
@@ -2964,7 +2998,7 @@
       <c r="I28" s="35"/>
       <c r="J28" s="98"/>
     </row>
-    <row r="29" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" ht="17" thickBot="1">
       <c r="B29" s="40"/>
       <c r="C29" s="20" t="s">
         <v>8</v>
@@ -2977,7 +3011,7 @@
       <c r="I29" s="35"/>
       <c r="J29" s="98"/>
     </row>
-    <row r="30" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" ht="17" thickBot="1">
       <c r="B30" s="40"/>
       <c r="C30" s="36" t="s">
         <v>36</v>
@@ -2998,7 +3032,7 @@
       </c>
       <c r="J30" s="98"/>
     </row>
-    <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" ht="17" thickBot="1">
       <c r="B31" s="40"/>
       <c r="C31" s="36" t="s">
         <v>47</v>
@@ -3020,7 +3054,7 @@
       </c>
       <c r="J31" s="98"/>
     </row>
-    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" ht="17" thickBot="1">
       <c r="B32" s="40"/>
       <c r="C32" s="36" t="s">
         <v>48</v>
@@ -3042,7 +3076,7 @@
       </c>
       <c r="J32" s="98"/>
     </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="40"/>
       <c r="C33" s="36" t="s">
         <v>34</v>
@@ -3061,7 +3095,7 @@
       </c>
       <c r="J33" s="98"/>
     </row>
-    <row r="34" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="20" customHeight="1" thickBot="1">
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
       <c r="D34" s="42"/>
@@ -3082,35 +3116,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="104" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="104" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="104" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="104" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="104" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="104" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" style="104" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="105" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" style="105" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="105" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="104" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="104" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="104" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="104" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="104" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="104" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" style="104" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="105" customWidth="1"/>
+    <col min="10" max="10" width="2.5" style="105" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="105" customWidth="1"/>
     <col min="12" max="12" width="3" style="105" customWidth="1"/>
     <col min="13" max="13" width="60" style="104" customWidth="1"/>
-    <col min="14" max="16384" width="10.7109375" style="104"/>
+    <col min="14" max="16384" width="10.6640625" style="104"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="17" thickBot="1"/>
+    <row r="2" spans="2:13">
       <c r="B2" s="106"/>
       <c r="C2" s="107"/>
       <c r="D2" s="107"/>
@@ -3124,7 +3158,7 @@
       <c r="L2" s="108"/>
       <c r="M2" s="109"/>
     </row>
-    <row r="3" spans="2:13" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" s="26" customFormat="1">
       <c r="B3" s="25"/>
       <c r="C3" s="100" t="s">
         <v>80</v>
@@ -3150,7 +3184,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13">
       <c r="B4" s="110"/>
       <c r="C4" s="111"/>
       <c r="D4" s="111"/>
@@ -3164,7 +3198,7 @@
       <c r="L4" s="99"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="17" thickBot="1">
       <c r="B5" s="110"/>
       <c r="C5" s="33" t="s">
         <v>79</v>
@@ -3180,7 +3214,7 @@
       <c r="L5" s="16"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="17" thickBot="1">
       <c r="B6" s="110"/>
       <c r="C6" s="135" t="s">
         <v>91</v>
@@ -3204,7 +3238,7 @@
       <c r="L6" s="112"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13">
       <c r="B7" s="110"/>
       <c r="C7" s="115"/>
       <c r="D7" s="115"/>
@@ -3218,7 +3252,7 @@
       <c r="L7" s="117"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="17" thickBot="1">
       <c r="B8" s="110"/>
       <c r="C8" s="33" t="s">
         <v>8</v>
@@ -3234,7 +3268,7 @@
       <c r="L8" s="116"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="17" thickBot="1">
       <c r="B9" s="110"/>
       <c r="C9" s="119" t="s">
         <v>1</v>
@@ -3260,7 +3294,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="17" thickBot="1">
       <c r="B10" s="110"/>
       <c r="C10" s="120" t="s">
         <v>6</v>
@@ -3287,7 +3321,7 @@
       <c r="L10" s="116"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13">
       <c r="B11" s="110"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
@@ -3301,7 +3335,7 @@
       <c r="L11" s="116"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="17" thickBot="1">
       <c r="B12" s="110"/>
       <c r="C12" s="19" t="s">
         <v>81</v>
@@ -3317,7 +3351,7 @@
       <c r="L12" s="116"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="17" thickBot="1">
       <c r="B13" s="110"/>
       <c r="C13" s="102" t="s">
         <v>82</v>
@@ -3338,7 +3372,7 @@
       <c r="L13" s="116"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="17" thickBot="1">
       <c r="B14" s="110"/>
       <c r="C14" s="122" t="s">
         <v>9</v>
@@ -3361,7 +3395,7 @@
       <c r="L14" s="132"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="17" thickBot="1">
       <c r="B15" s="110"/>
       <c r="C15" s="102" t="s">
         <v>83</v>
@@ -3382,7 +3416,7 @@
       <c r="L15" s="116"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="17" thickBot="1">
       <c r="B16" s="110"/>
       <c r="C16" s="102" t="s">
         <v>84</v>
@@ -3405,7 +3439,7 @@
       <c r="L16" s="116"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="17" thickBot="1">
       <c r="B17" s="110"/>
       <c r="C17" s="102" t="s">
         <v>85</v>
@@ -3425,7 +3459,7 @@
       <c r="L17" s="116"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="17" thickBot="1">
       <c r="B18" s="110"/>
       <c r="C18" s="102" t="s">
         <v>85</v>
@@ -3445,7 +3479,7 @@
       <c r="L18" s="116"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="17" thickBot="1">
       <c r="B19" s="126"/>
       <c r="C19" s="127"/>
       <c r="D19" s="127"/>
@@ -3466,8 +3500,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:K15"/>
@@ -3476,22 +3510,22 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="48" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="48" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="48" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="48" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="48" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="48" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="48" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" style="49" customWidth="1"/>
-    <col min="11" max="11" width="60.42578125" style="48" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="48"/>
+    <col min="1" max="1" width="3.33203125" style="48" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="48" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="48" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="48" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="48" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="48" customWidth="1"/>
+    <col min="10" max="10" width="35.1640625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="60.5" style="48" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -3503,7 +3537,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="51"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="53"/>
       <c r="C3" s="54" t="s">
         <v>21</v>
@@ -3517,7 +3551,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="53"/>
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
@@ -3529,7 +3563,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="58"/>
       <c r="C5" s="59" t="s">
         <v>29</v>
@@ -3557,7 +3591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="53"/>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -3569,7 +3603,7 @@
       <c r="J6" s="55"/>
       <c r="K6" s="54"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="53"/>
       <c r="C7" s="67"/>
       <c r="D7" s="61"/>
@@ -3593,7 +3627,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11">
       <c r="B8" s="53"/>
       <c r="C8" s="62" t="s">
         <v>1</v>
@@ -3607,7 +3641,7 @@
       <c r="J8" s="57"/>
       <c r="K8" s="72"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11">
       <c r="B9" s="53"/>
       <c r="C9" s="61" t="s">
         <v>61</v>
@@ -3621,7 +3655,7 @@
       <c r="J9" s="57"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11">
       <c r="B10" s="53"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
@@ -3633,7 +3667,7 @@
       <c r="J10" s="64"/>
       <c r="K10" s="61"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11">
       <c r="B11" s="53"/>
       <c r="C11" s="61"/>
       <c r="D11" s="61"/>
@@ -3657,7 +3691,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11">
       <c r="B12" s="53"/>
       <c r="C12" s="62" t="s">
         <v>86</v>
@@ -3671,7 +3705,7 @@
       <c r="J12" s="68"/>
       <c r="K12" s="65"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11">
       <c r="B13" s="53"/>
       <c r="C13" s="62" t="s">
         <v>96</v>
@@ -3685,7 +3719,7 @@
       <c r="J13" s="68"/>
       <c r="K13" s="61"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11">
       <c r="B14" s="53"/>
       <c r="C14" s="62" t="s">
         <v>6</v>
@@ -3699,7 +3733,7 @@
       <c r="J14" s="68"/>
       <c r="K14" s="61"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11">
       <c r="B15" s="53"/>
       <c r="C15" s="62" t="s">
         <v>112</v>
@@ -3723,24 +3757,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:M50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="138" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="138" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="138" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="138"/>
+    <col min="1" max="1" width="5.33203125" style="138" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="138" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="138" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="138"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="17" thickBot="1"/>
+    <row r="2" spans="2:13" s="26" customFormat="1">
       <c r="B2" s="139"/>
       <c r="C2" s="140" t="s">
         <v>73</v>
@@ -3758,7 +3792,7 @@
       <c r="L2" s="140"/>
       <c r="M2" s="140"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13">
       <c r="B3" s="141"/>
       <c r="C3" s="142"/>
       <c r="D3" s="142"/>
@@ -3772,7 +3806,7 @@
       <c r="L3" s="142"/>
       <c r="M3" s="142"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13">
       <c r="B4" s="141"/>
       <c r="C4" s="142" t="s">
         <v>114</v>
@@ -3788,7 +3822,7 @@
       <c r="L4" s="142"/>
       <c r="M4" s="142"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13">
       <c r="B5" s="141"/>
       <c r="C5" s="142" t="s">
         <v>101</v>
@@ -3804,7 +3838,7 @@
       <c r="L5" s="142"/>
       <c r="M5" s="142"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13">
       <c r="B6" s="141"/>
       <c r="C6" s="142"/>
       <c r="D6" s="142"/>
@@ -3818,7 +3852,7 @@
       <c r="L6" s="142"/>
       <c r="M6" s="142"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13">
       <c r="B7" s="141"/>
       <c r="C7" s="142"/>
       <c r="D7" s="142"/>
@@ -3832,7 +3866,7 @@
       <c r="L7" s="142"/>
       <c r="M7" s="142"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13">
       <c r="B8" s="141"/>
       <c r="C8" s="142"/>
       <c r="D8" s="142"/>
@@ -3846,7 +3880,7 @@
       <c r="L8" s="142"/>
       <c r="M8" s="142"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13">
       <c r="B9" s="141"/>
       <c r="C9" s="142"/>
       <c r="D9" s="142"/>
@@ -3860,7 +3894,7 @@
       <c r="L9" s="142"/>
       <c r="M9" s="142"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13">
       <c r="B10" s="141"/>
       <c r="C10" s="142"/>
       <c r="D10" s="142"/>
@@ -3874,7 +3908,7 @@
       <c r="L10" s="142"/>
       <c r="M10" s="142"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13">
       <c r="B11" s="141"/>
       <c r="C11" s="142"/>
       <c r="D11" s="142"/>
@@ -3888,7 +3922,7 @@
       <c r="L11" s="142"/>
       <c r="M11" s="142"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13">
       <c r="B12" s="141"/>
       <c r="C12" s="142"/>
       <c r="D12" s="142"/>
@@ -3902,7 +3936,7 @@
       <c r="L12" s="142"/>
       <c r="M12" s="142"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13">
       <c r="B13" s="141"/>
       <c r="C13" s="142"/>
       <c r="D13" s="142"/>
@@ -3916,7 +3950,7 @@
       <c r="L13" s="142"/>
       <c r="M13" s="142"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13">
       <c r="B14" s="141"/>
       <c r="C14" s="142"/>
       <c r="D14" s="142"/>
@@ -3930,7 +3964,7 @@
       <c r="L14" s="142"/>
       <c r="M14" s="142"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13">
       <c r="B15" s="141"/>
       <c r="C15" s="142"/>
       <c r="D15" s="142"/>
@@ -3944,7 +3978,7 @@
       <c r="L15" s="142"/>
       <c r="M15" s="142"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13">
       <c r="B16" s="141"/>
       <c r="C16" s="142"/>
       <c r="D16" s="142"/>
@@ -3958,7 +3992,7 @@
       <c r="L16" s="142"/>
       <c r="M16" s="142"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13">
       <c r="B17" s="141"/>
       <c r="C17" s="142"/>
       <c r="D17" s="142">
@@ -3976,7 +4010,7 @@
       <c r="L17" s="142"/>
       <c r="M17" s="142"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13">
       <c r="B18" s="141"/>
       <c r="C18" s="142" t="s">
         <v>102</v>
@@ -3996,7 +4030,7 @@
       <c r="L18" s="142"/>
       <c r="M18" s="142"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13">
       <c r="B19" s="141"/>
       <c r="C19" s="142" t="s">
         <v>104</v>
@@ -4016,7 +4050,7 @@
       <c r="L19" s="142"/>
       <c r="M19" s="142"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13">
       <c r="B20" s="141"/>
       <c r="C20" s="142" t="s">
         <v>105</v>
@@ -4036,7 +4070,7 @@
       <c r="L20" s="142"/>
       <c r="M20" s="142"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13">
       <c r="B21" s="141"/>
       <c r="C21" s="142"/>
       <c r="D21" s="142"/>
@@ -4050,7 +4084,7 @@
       <c r="L21" s="142"/>
       <c r="M21" s="142"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13">
       <c r="B22" s="141"/>
       <c r="C22" s="142"/>
       <c r="D22" s="142"/>
@@ -4064,7 +4098,7 @@
       <c r="L22" s="142"/>
       <c r="M22" s="142"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13">
       <c r="B23" s="141"/>
       <c r="C23" s="142"/>
       <c r="D23" s="142"/>
@@ -4078,7 +4112,7 @@
       <c r="L23" s="142"/>
       <c r="M23" s="142"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13">
       <c r="B24" s="141"/>
       <c r="C24" s="142"/>
       <c r="D24" s="142"/>
@@ -4092,7 +4126,7 @@
       <c r="L24" s="142"/>
       <c r="M24" s="142"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13">
       <c r="B25" s="141"/>
       <c r="C25" s="142"/>
       <c r="D25" s="142"/>
@@ -4106,7 +4140,7 @@
       <c r="L25" s="142"/>
       <c r="M25" s="142"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13">
       <c r="B26" s="141"/>
       <c r="C26" s="142"/>
       <c r="D26" s="142"/>
@@ -4120,7 +4154,7 @@
       <c r="L26" s="142"/>
       <c r="M26" s="142"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13">
       <c r="B27" s="141"/>
       <c r="C27" s="142"/>
       <c r="D27" s="142"/>
@@ -4134,7 +4168,7 @@
       <c r="L27" s="142"/>
       <c r="M27" s="142"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13">
       <c r="B28" s="141"/>
       <c r="C28" s="142"/>
       <c r="D28" s="142"/>
@@ -4148,7 +4182,7 @@
       <c r="L28" s="142"/>
       <c r="M28" s="142"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13">
       <c r="B29" s="141"/>
       <c r="C29" s="142"/>
       <c r="D29" s="142"/>
@@ -4162,7 +4196,7 @@
       <c r="L29" s="142"/>
       <c r="M29" s="142"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13">
       <c r="B30" s="141"/>
       <c r="C30" s="142"/>
       <c r="D30" s="142"/>
@@ -4176,7 +4210,7 @@
       <c r="L30" s="142"/>
       <c r="M30" s="142"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13">
       <c r="B31" s="141"/>
       <c r="C31" s="142" t="s">
         <v>93</v>
@@ -4192,7 +4226,7 @@
       <c r="L31" s="142"/>
       <c r="M31" s="142"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13">
       <c r="B32" s="141"/>
       <c r="C32" s="142" t="s">
         <v>107</v>
@@ -4208,7 +4242,7 @@
       <c r="L32" s="142"/>
       <c r="M32" s="142"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13">
       <c r="B33" s="141"/>
       <c r="C33" s="142"/>
       <c r="D33" s="142"/>
@@ -4222,7 +4256,7 @@
       <c r="L33" s="142"/>
       <c r="M33" s="142"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13">
       <c r="B34" s="141"/>
       <c r="C34" s="142"/>
       <c r="D34" s="142"/>
@@ -4236,7 +4270,7 @@
       <c r="L34" s="142"/>
       <c r="M34" s="142"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13">
       <c r="B35" s="141"/>
       <c r="C35" s="142"/>
       <c r="D35" s="142"/>
@@ -4250,7 +4284,7 @@
       <c r="L35" s="142"/>
       <c r="M35" s="142"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13">
       <c r="B36" s="141"/>
       <c r="C36" s="142"/>
       <c r="D36" s="142"/>
@@ -4264,7 +4298,7 @@
       <c r="L36" s="142"/>
       <c r="M36" s="142"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13">
       <c r="B37" s="141"/>
       <c r="C37" s="142"/>
       <c r="D37" s="142"/>
@@ -4278,7 +4312,7 @@
       <c r="L37" s="142"/>
       <c r="M37" s="142"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13">
       <c r="B38" s="141"/>
       <c r="C38" s="142"/>
       <c r="D38" s="142"/>
@@ -4292,7 +4326,7 @@
       <c r="L38" s="142"/>
       <c r="M38" s="142"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13">
       <c r="B39" s="141"/>
       <c r="C39" s="142"/>
       <c r="D39" s="142"/>
@@ -4306,7 +4340,7 @@
       <c r="L39" s="142"/>
       <c r="M39" s="142"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13">
       <c r="B40" s="141"/>
       <c r="C40" s="142"/>
       <c r="D40" s="142"/>
@@ -4320,7 +4354,7 @@
       <c r="L40" s="142"/>
       <c r="M40" s="142"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13">
       <c r="B41" s="141"/>
       <c r="C41" s="142"/>
       <c r="D41" s="142"/>
@@ -4334,7 +4368,7 @@
       <c r="L41" s="142"/>
       <c r="M41" s="142"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13">
       <c r="B42" s="141"/>
       <c r="C42" s="142" t="s">
         <v>108</v>
@@ -4354,7 +4388,7 @@
       <c r="L42" s="142"/>
       <c r="M42" s="142"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13">
       <c r="B43" s="141"/>
       <c r="C43" s="142" t="s">
         <v>105</v>
@@ -4374,7 +4408,7 @@
       <c r="L43" s="142"/>
       <c r="M43" s="142"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13">
       <c r="B44" s="141"/>
       <c r="C44" s="142"/>
       <c r="D44" s="142"/>
@@ -4388,7 +4422,7 @@
       <c r="L44" s="142"/>
       <c r="M44" s="142"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13">
       <c r="B45" s="141"/>
       <c r="C45" s="142"/>
       <c r="D45" s="142"/>
@@ -4402,7 +4436,7 @@
       <c r="L45" s="142"/>
       <c r="M45" s="142"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13">
       <c r="B46" s="141"/>
       <c r="C46" s="142"/>
       <c r="D46" s="142"/>
@@ -4416,7 +4450,7 @@
       <c r="L46" s="142"/>
       <c r="M46" s="142"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13">
       <c r="B47" s="141"/>
       <c r="C47" s="142"/>
       <c r="D47" s="142"/>
@@ -4430,7 +4464,7 @@
       <c r="L47" s="142"/>
       <c r="M47" s="142"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13">
       <c r="B48" s="141"/>
       <c r="C48" s="142"/>
       <c r="D48" s="142"/>
@@ -4444,7 +4478,7 @@
       <c r="L48" s="142"/>
       <c r="M48" s="142"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13">
       <c r="B49" s="141"/>
       <c r="C49" s="142"/>
       <c r="D49" s="142"/>
@@ -4458,7 +4492,7 @@
       <c r="L49" s="142"/>
       <c r="M49" s="142"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13">
       <c r="B50" s="141"/>
       <c r="C50" s="142"/>
       <c r="D50" s="142"/>

--- a/nodes_source_analyses/agriculture/agriculture_geothermal.converter.xlsx
+++ b/nodes_source_analyses/agriculture/agriculture_geothermal.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/agriculture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17B07DA-F781-C04C-AE6A-F327D209BDD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDEABB1-1763-FE46-AD3A-48DF8EC2D9F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26820" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="153">
   <si>
     <t>Source</t>
   </si>
@@ -604,6 +604,9 @@
       <t>Ecofys-ISE, iea-etsap</t>
     </r>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
@@ -613,12 +616,19 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1133,516 +1143,517 @@
   </borders>
   <cellStyleXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="253">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2626,8 +2637,8 @@
   </sheetPr>
   <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
@@ -2652,28 +2663,28 @@
       <c r="G1" s="34"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="142" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="134"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="144"/>
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="135"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="147"/>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
     </row>
     <row r="4" spans="2:11" ht="34" customHeight="1">
-      <c r="B4" s="138"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="140"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="150"/>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
     </row>
@@ -2753,7 +2764,7 @@
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
-      <c r="I10" s="146" t="s">
+      <c r="I10" s="137" t="s">
         <v>50</v>
       </c>
       <c r="J10" s="96"/>
@@ -2773,7 +2784,7 @@
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
-      <c r="I11" s="146" t="s">
+      <c r="I11" s="137" t="s">
         <v>50</v>
       </c>
       <c r="J11" s="96"/>
@@ -2794,7 +2805,7 @@
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
-      <c r="I12" s="146" t="s">
+      <c r="I12" s="137" t="s">
         <v>50</v>
       </c>
       <c r="J12" s="96"/>
@@ -2814,7 +2825,7 @@
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
-      <c r="I13" s="146" t="s">
+      <c r="I13" s="137" t="s">
         <v>146</v>
       </c>
       <c r="J13" s="96"/>
@@ -2836,7 +2847,7 @@
         <v>27</v>
       </c>
       <c r="H14" s="35"/>
-      <c r="I14" s="146" t="s">
+      <c r="I14" s="137" t="s">
         <v>50</v>
       </c>
       <c r="J14" s="96"/>
@@ -2858,7 +2869,7 @@
         <v>51</v>
       </c>
       <c r="H15" s="35"/>
-      <c r="I15" s="146" t="s">
+      <c r="I15" s="137" t="s">
         <v>146</v>
       </c>
       <c r="J15" s="96"/>
@@ -2871,7 +2882,7 @@
       <c r="F16" s="34"/>
       <c r="G16" s="72"/>
       <c r="H16" s="34"/>
-      <c r="I16" s="141"/>
+      <c r="I16" s="132"/>
       <c r="J16" s="96"/>
     </row>
     <row r="17" spans="2:10" ht="17" thickBot="1">
@@ -2884,7 +2895,7 @@
       <c r="F17" s="34"/>
       <c r="G17" s="72"/>
       <c r="H17" s="34"/>
-      <c r="I17" s="141"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="96"/>
     </row>
     <row r="18" spans="2:10" ht="17" thickBot="1">
@@ -2904,7 +2915,7 @@
         <v>9</v>
       </c>
       <c r="H18" s="35"/>
-      <c r="I18" s="146" t="s">
+      <c r="I18" s="137" t="s">
         <v>146</v>
       </c>
       <c r="J18" s="96"/>
@@ -2925,7 +2936,7 @@
         <v>52</v>
       </c>
       <c r="H19" s="35"/>
-      <c r="I19" s="146" t="s">
+      <c r="I19" s="137" t="s">
         <v>50</v>
       </c>
       <c r="J19" s="96"/>
@@ -2946,7 +2957,7 @@
         <v>23</v>
       </c>
       <c r="H20" s="35"/>
-      <c r="I20" s="146" t="s">
+      <c r="I20" s="137" t="s">
         <v>50</v>
       </c>
       <c r="J20" s="96"/>
@@ -2967,7 +2978,7 @@
         <v>26</v>
       </c>
       <c r="H21" s="35"/>
-      <c r="I21" s="146" t="s">
+      <c r="I21" s="137" t="s">
         <v>50</v>
       </c>
       <c r="J21" s="96"/>
@@ -2989,7 +3000,7 @@
         <v>53</v>
       </c>
       <c r="H22" s="35"/>
-      <c r="I22" s="146" t="s">
+      <c r="I22" s="137" t="s">
         <v>146</v>
       </c>
       <c r="J22" s="96"/>
@@ -3011,7 +3022,7 @@
         <v>54</v>
       </c>
       <c r="H23" s="35"/>
-      <c r="I23" s="146" t="s">
+      <c r="I23" s="137" t="s">
         <v>50</v>
       </c>
       <c r="J23" s="96"/>
@@ -3032,7 +3043,7 @@
         <v>55</v>
       </c>
       <c r="H24" s="35"/>
-      <c r="I24" s="149" t="s">
+      <c r="I24" s="140" t="s">
         <v>50</v>
       </c>
       <c r="J24" s="96"/>
@@ -3045,16 +3056,16 @@
       <c r="D25" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="46">
-        <v>0.1</v>
+      <c r="E25" s="45">
+        <v>0.04</v>
       </c>
       <c r="F25" s="35"/>
       <c r="G25" s="35" t="s">
         <v>22</v>
       </c>
       <c r="H25" s="35"/>
-      <c r="I25" s="146" t="s">
-        <v>50</v>
+      <c r="I25" s="151" t="s">
+        <v>152</v>
       </c>
       <c r="J25" s="96"/>
     </row>
@@ -3066,7 +3077,7 @@
       <c r="F26" s="35"/>
       <c r="G26" s="35"/>
       <c r="H26" s="35"/>
-      <c r="I26" s="141"/>
+      <c r="I26" s="132"/>
       <c r="J26" s="96"/>
     </row>
     <row r="27" spans="2:10" ht="17" thickBot="1">
@@ -3079,7 +3090,7 @@
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
       <c r="H27" s="34"/>
-      <c r="I27" s="141"/>
+      <c r="I27" s="132"/>
       <c r="J27" s="96"/>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1">
@@ -3098,7 +3109,7 @@
         <v>14</v>
       </c>
       <c r="H28" s="35"/>
-      <c r="I28" s="146" t="s">
+      <c r="I28" s="137" t="s">
         <v>50</v>
       </c>
       <c r="J28" s="96"/>
@@ -3120,7 +3131,7 @@
         <v>25</v>
       </c>
       <c r="H29" s="35"/>
-      <c r="I29" s="150" t="s">
+      <c r="I29" s="141" t="s">
         <v>90</v>
       </c>
       <c r="J29" s="96"/>
@@ -3142,7 +3153,7 @@
         <v>24</v>
       </c>
       <c r="H30" s="35"/>
-      <c r="I30" s="146" t="s">
+      <c r="I30" s="137" t="s">
         <v>151</v>
       </c>
       <c r="J30" s="96"/>
@@ -3161,7 +3172,7 @@
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
       <c r="H31" s="35"/>
-      <c r="I31" s="146" t="s">
+      <c r="I31" s="137" t="s">
         <v>50</v>
       </c>
       <c r="J31" s="96"/>
@@ -3294,7 +3305,7 @@
     </row>
     <row r="6" spans="2:14" ht="17" thickBot="1">
       <c r="B6" s="106"/>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="136" t="s">
         <v>51</v>
       </c>
       <c r="D6" s="99"/>
@@ -3314,7 +3325,7 @@
       <c r="J6" s="108"/>
       <c r="K6" s="108"/>
       <c r="L6" s="108"/>
-      <c r="M6" s="146">
+      <c r="M6" s="137">
         <f>Notes!E57</f>
         <v>14</v>
       </c>
@@ -3322,7 +3333,7 @@
     </row>
     <row r="7" spans="2:14" ht="17" thickBot="1">
       <c r="B7" s="106"/>
-      <c r="C7" s="145" t="s">
+      <c r="C7" s="136" t="s">
         <v>95</v>
       </c>
       <c r="D7" s="99"/>
@@ -3337,7 +3348,7 @@
       <c r="J7" s="108"/>
       <c r="K7" s="108"/>
       <c r="L7" s="108"/>
-      <c r="M7" s="146">
+      <c r="M7" s="137">
         <f>Notes!E56</f>
         <v>6000</v>
       </c>
@@ -3464,7 +3475,7 @@
     </row>
     <row r="14" spans="2:14" ht="17" thickBot="1">
       <c r="B14" s="106"/>
-      <c r="C14" s="145" t="s">
+      <c r="C14" s="136" t="s">
         <v>145</v>
       </c>
       <c r="D14" s="19"/>
@@ -3481,7 +3492,7 @@
       <c r="J14" s="112"/>
       <c r="K14" s="112"/>
       <c r="L14" s="112"/>
-      <c r="M14" s="146">
+      <c r="M14" s="137">
         <f>Notes!E59</f>
         <v>26726000</v>
       </c>
@@ -3506,7 +3517,7 @@
       <c r="J15" s="112"/>
       <c r="K15" s="112"/>
       <c r="L15" s="112"/>
-      <c r="M15" s="146">
+      <c r="M15" s="137">
         <f>Notes!E61</f>
         <v>1414000</v>
       </c>
@@ -3534,7 +3545,7 @@
       <c r="J16" s="112"/>
       <c r="K16" s="112"/>
       <c r="L16" s="112"/>
-      <c r="M16" s="146">
+      <c r="M16" s="137">
         <f>Notes!E62</f>
         <v>101</v>
       </c>
@@ -3559,7 +3570,7 @@
       <c r="J17" s="112"/>
       <c r="K17" s="112"/>
       <c r="L17" s="112"/>
-      <c r="M17" s="146">
+      <c r="M17" s="137">
         <f>Notes!E68</f>
         <v>26.6</v>
       </c>
@@ -3584,7 +3595,7 @@
       <c r="J18" s="112"/>
       <c r="K18" s="112"/>
       <c r="L18" s="112"/>
-      <c r="M18" s="146">
+      <c r="M18" s="137">
         <f>Notes!E64</f>
         <v>1.9</v>
       </c>
@@ -3861,7 +3872,7 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="52"/>
-      <c r="C17" s="147" t="s">
+      <c r="C17" s="138" t="s">
         <v>147</v>
       </c>
       <c r="E17" s="47" t="s">
@@ -3882,43 +3893,43 @@
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="52"/>
-      <c r="C18" s="148" t="s">
+      <c r="C18" s="139" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="52"/>
-      <c r="C19" s="147" t="s">
+      <c r="C19" s="138" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="52"/>
-      <c r="C20" s="147" t="s">
+      <c r="C20" s="138" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="52"/>
-      <c r="C21" s="147" t="s">
+      <c r="C21" s="138" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="52"/>
-      <c r="C22" s="147" t="s">
+      <c r="C22" s="138" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="52"/>
-      <c r="C23" s="147" t="s">
+      <c r="C23" s="138" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="52"/>
-      <c r="C24" s="147" t="s">
+      <c r="C24" s="138" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4682,622 +4693,622 @@
       <c r="M50" s="131"/>
     </row>
     <row r="52" spans="2:18">
-      <c r="B52" s="141"/>
-      <c r="C52" s="141"/>
-      <c r="D52" s="141"/>
-      <c r="E52" s="141"/>
-      <c r="F52" s="141"/>
-      <c r="G52" s="141"/>
-      <c r="H52" s="141"/>
-      <c r="I52" s="141"/>
-      <c r="J52" s="141"/>
-      <c r="K52" s="141"/>
-      <c r="L52" s="141"/>
-      <c r="M52" s="141"/>
-      <c r="N52" s="141"/>
-      <c r="O52" s="141"/>
-      <c r="P52" s="141"/>
-      <c r="Q52" s="141"/>
-      <c r="R52" s="141"/>
+      <c r="B52" s="132"/>
+      <c r="C52" s="132"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="132"/>
+      <c r="G52" s="132"/>
+      <c r="H52" s="132"/>
+      <c r="I52" s="132"/>
+      <c r="J52" s="132"/>
+      <c r="K52" s="132"/>
+      <c r="L52" s="132"/>
+      <c r="M52" s="132"/>
+      <c r="N52" s="132"/>
+      <c r="O52" s="132"/>
+      <c r="P52" s="132"/>
+      <c r="Q52" s="132"/>
+      <c r="R52" s="132"/>
     </row>
     <row r="53" spans="2:18">
-      <c r="B53" s="141"/>
-      <c r="C53" s="141"/>
-      <c r="D53" s="141"/>
-      <c r="E53" s="141"/>
-      <c r="F53" s="141"/>
-      <c r="G53" s="142" t="s">
+      <c r="B53" s="132"/>
+      <c r="C53" s="132"/>
+      <c r="D53" s="132"/>
+      <c r="E53" s="132"/>
+      <c r="F53" s="132"/>
+      <c r="G53" s="133" t="s">
         <v>115</v>
       </c>
-      <c r="H53" s="143"/>
-      <c r="I53" s="143"/>
-      <c r="J53" s="143"/>
-      <c r="K53" s="143"/>
-      <c r="L53" s="143"/>
-      <c r="M53" s="143"/>
-      <c r="N53" s="143"/>
-      <c r="O53" s="143"/>
-      <c r="P53" s="143"/>
-      <c r="Q53" s="143"/>
-      <c r="R53" s="143"/>
+      <c r="H53" s="134"/>
+      <c r="I53" s="134"/>
+      <c r="J53" s="134"/>
+      <c r="K53" s="134"/>
+      <c r="L53" s="134"/>
+      <c r="M53" s="134"/>
+      <c r="N53" s="134"/>
+      <c r="O53" s="134"/>
+      <c r="P53" s="134"/>
+      <c r="Q53" s="134"/>
+      <c r="R53" s="134"/>
     </row>
     <row r="54" spans="2:18">
-      <c r="B54" s="141"/>
-      <c r="C54" s="141" t="s">
+      <c r="B54" s="132"/>
+      <c r="C54" s="132" t="s">
         <v>116</v>
       </c>
-      <c r="D54" s="141"/>
-      <c r="E54" s="141"/>
-      <c r="F54" s="141"/>
-      <c r="G54" s="143"/>
-      <c r="H54" s="143"/>
-      <c r="I54" s="143"/>
-      <c r="J54" s="143"/>
-      <c r="K54" s="143"/>
-      <c r="L54" s="143"/>
-      <c r="M54" s="143"/>
-      <c r="N54" s="143"/>
-      <c r="O54" s="143"/>
-      <c r="P54" s="143"/>
-      <c r="Q54" s="143"/>
-      <c r="R54" s="143"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="132"/>
+      <c r="F54" s="132"/>
+      <c r="G54" s="134"/>
+      <c r="H54" s="134"/>
+      <c r="I54" s="134"/>
+      <c r="J54" s="134"/>
+      <c r="K54" s="134"/>
+      <c r="L54" s="134"/>
+      <c r="M54" s="134"/>
+      <c r="N54" s="134"/>
+      <c r="O54" s="134"/>
+      <c r="P54" s="134"/>
+      <c r="Q54" s="134"/>
+      <c r="R54" s="134"/>
     </row>
     <row r="55" spans="2:18">
-      <c r="B55" s="141"/>
-      <c r="C55" s="141"/>
-      <c r="D55" s="141"/>
-      <c r="E55" s="141"/>
-      <c r="F55" s="141"/>
-      <c r="G55" s="143" t="s">
+      <c r="B55" s="132"/>
+      <c r="C55" s="132"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="132"/>
+      <c r="F55" s="132"/>
+      <c r="G55" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="H55" s="143"/>
-      <c r="I55" s="143"/>
-      <c r="J55" s="143"/>
-      <c r="K55" s="143" t="s">
+      <c r="H55" s="134"/>
+      <c r="I55" s="134"/>
+      <c r="J55" s="134"/>
+      <c r="K55" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="L55" s="143"/>
-      <c r="M55" s="143"/>
-      <c r="N55" s="143"/>
-      <c r="O55" s="143"/>
-      <c r="P55" s="143"/>
-      <c r="Q55" s="143" t="s">
+      <c r="L55" s="134"/>
+      <c r="M55" s="134"/>
+      <c r="N55" s="134"/>
+      <c r="O55" s="134"/>
+      <c r="P55" s="134"/>
+      <c r="Q55" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="R55" s="143"/>
+      <c r="R55" s="134"/>
     </row>
     <row r="56" spans="2:18">
-      <c r="B56" s="141"/>
-      <c r="C56" s="141" t="s">
+      <c r="B56" s="132"/>
+      <c r="C56" s="132" t="s">
         <v>120</v>
       </c>
-      <c r="D56" s="141"/>
-      <c r="E56" s="141">
+      <c r="D56" s="132"/>
+      <c r="E56" s="132">
         <f>K61</f>
         <v>6000</v>
       </c>
-      <c r="F56" s="141"/>
-      <c r="G56" s="143"/>
-      <c r="H56" s="143"/>
-      <c r="I56" s="143"/>
-      <c r="J56" s="143"/>
-      <c r="K56" s="143"/>
-      <c r="L56" s="143"/>
-      <c r="M56" s="143"/>
-      <c r="N56" s="143"/>
-      <c r="O56" s="143"/>
-      <c r="P56" s="143"/>
-      <c r="Q56" s="143"/>
-      <c r="R56" s="143"/>
+      <c r="F56" s="132"/>
+      <c r="G56" s="134"/>
+      <c r="H56" s="134"/>
+      <c r="I56" s="134"/>
+      <c r="J56" s="134"/>
+      <c r="K56" s="134"/>
+      <c r="L56" s="134"/>
+      <c r="M56" s="134"/>
+      <c r="N56" s="134"/>
+      <c r="O56" s="134"/>
+      <c r="P56" s="134"/>
+      <c r="Q56" s="134"/>
+      <c r="R56" s="134"/>
     </row>
     <row r="57" spans="2:18">
-      <c r="B57" s="141"/>
-      <c r="C57" s="141" t="s">
+      <c r="B57" s="132"/>
+      <c r="C57" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="D57" s="141"/>
-      <c r="E57" s="141">
+      <c r="D57" s="132"/>
+      <c r="E57" s="132">
         <f>K59</f>
         <v>14</v>
       </c>
-      <c r="F57" s="141" t="s">
+      <c r="F57" s="132" t="s">
         <v>57</v>
       </c>
-      <c r="G57" s="143" t="s">
+      <c r="G57" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="H57" s="143"/>
-      <c r="I57" s="143"/>
-      <c r="J57" s="143"/>
-      <c r="K57" s="143" t="s">
+      <c r="H57" s="134"/>
+      <c r="I57" s="134"/>
+      <c r="J57" s="134"/>
+      <c r="K57" s="134" t="s">
         <v>123</v>
       </c>
-      <c r="L57" s="143"/>
-      <c r="M57" s="143"/>
-      <c r="N57" s="143"/>
-      <c r="O57" s="143"/>
-      <c r="P57" s="143"/>
-      <c r="Q57" s="143" t="s">
+      <c r="L57" s="134"/>
+      <c r="M57" s="134"/>
+      <c r="N57" s="134"/>
+      <c r="O57" s="134"/>
+      <c r="P57" s="134"/>
+      <c r="Q57" s="134" t="s">
         <v>124</v>
       </c>
-      <c r="R57" s="143"/>
+      <c r="R57" s="134"/>
     </row>
     <row r="58" spans="2:18">
-      <c r="B58" s="141"/>
-      <c r="C58" s="141"/>
-      <c r="D58" s="141"/>
-      <c r="E58" s="141">
+      <c r="B58" s="132"/>
+      <c r="C58" s="132"/>
+      <c r="D58" s="132"/>
+      <c r="E58" s="132">
         <f>E57*1000</f>
         <v>14000</v>
       </c>
-      <c r="F58" s="141" t="s">
+      <c r="F58" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="G58" s="143"/>
-      <c r="H58" s="143"/>
-      <c r="I58" s="143"/>
-      <c r="J58" s="143"/>
-      <c r="K58" s="143"/>
-      <c r="L58" s="143"/>
-      <c r="M58" s="143"/>
-      <c r="N58" s="143"/>
-      <c r="O58" s="143"/>
-      <c r="P58" s="143"/>
-      <c r="Q58" s="143"/>
-      <c r="R58" s="143"/>
+      <c r="G58" s="134"/>
+      <c r="H58" s="134"/>
+      <c r="I58" s="134"/>
+      <c r="J58" s="134"/>
+      <c r="K58" s="134"/>
+      <c r="L58" s="134"/>
+      <c r="M58" s="134"/>
+      <c r="N58" s="134"/>
+      <c r="O58" s="134"/>
+      <c r="P58" s="134"/>
+      <c r="Q58" s="134"/>
+      <c r="R58" s="134"/>
     </row>
     <row r="59" spans="2:18">
-      <c r="B59" s="141"/>
-      <c r="C59" s="141" t="s">
+      <c r="B59" s="132"/>
+      <c r="C59" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="D59" s="141" t="s">
+      <c r="D59" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="E59" s="141">
+      <c r="E59" s="132">
         <f>K63*E58</f>
         <v>26726000</v>
       </c>
-      <c r="F59" s="141"/>
-      <c r="G59" s="143" t="s">
+      <c r="F59" s="132"/>
+      <c r="G59" s="134" t="s">
         <v>126</v>
       </c>
-      <c r="H59" s="143"/>
-      <c r="I59" s="143"/>
-      <c r="J59" s="143"/>
-      <c r="K59" s="143">
+      <c r="H59" s="134"/>
+      <c r="I59" s="134"/>
+      <c r="J59" s="134"/>
+      <c r="K59" s="134">
         <v>14</v>
       </c>
-      <c r="L59" s="143" t="s">
+      <c r="L59" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="M59" s="143"/>
-      <c r="N59" s="143"/>
-      <c r="O59" s="143"/>
-      <c r="P59" s="143"/>
-      <c r="Q59" s="143">
+      <c r="M59" s="134"/>
+      <c r="N59" s="134"/>
+      <c r="O59" s="134"/>
+      <c r="P59" s="134"/>
+      <c r="Q59" s="134">
         <v>30</v>
       </c>
-      <c r="R59" s="143" t="s">
+      <c r="R59" s="134" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="2:18">
-      <c r="B60" s="141"/>
-      <c r="C60" s="141" t="s">
+      <c r="B60" s="132"/>
+      <c r="C60" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="141" t="s">
+      <c r="D60" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="E60" s="141">
+      <c r="E60" s="132">
         <f>K63</f>
         <v>1909</v>
       </c>
-      <c r="F60" s="141"/>
-      <c r="G60" s="143"/>
-      <c r="H60" s="143"/>
-      <c r="I60" s="143"/>
-      <c r="J60" s="143"/>
-      <c r="K60" s="143"/>
-      <c r="L60" s="143"/>
-      <c r="M60" s="143"/>
-      <c r="N60" s="143"/>
-      <c r="O60" s="143"/>
-      <c r="P60" s="143"/>
-      <c r="Q60" s="143"/>
-      <c r="R60" s="143"/>
+      <c r="F60" s="132"/>
+      <c r="G60" s="134"/>
+      <c r="H60" s="134"/>
+      <c r="I60" s="134"/>
+      <c r="J60" s="134"/>
+      <c r="K60" s="134"/>
+      <c r="L60" s="134"/>
+      <c r="M60" s="134"/>
+      <c r="N60" s="134"/>
+      <c r="O60" s="134"/>
+      <c r="P60" s="134"/>
+      <c r="Q60" s="134"/>
+      <c r="R60" s="134"/>
     </row>
     <row r="61" spans="2:18">
-      <c r="B61" s="141"/>
-      <c r="C61" s="141" t="s">
+      <c r="B61" s="132"/>
+      <c r="C61" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="D61" s="141" t="s">
+      <c r="D61" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="E61" s="141">
+      <c r="E61" s="132">
         <f>E62*E58</f>
         <v>1414000</v>
       </c>
-      <c r="F61" s="141"/>
-      <c r="G61" s="143" t="s">
+      <c r="F61" s="132"/>
+      <c r="G61" s="134" t="s">
         <v>128</v>
       </c>
-      <c r="H61" s="143"/>
-      <c r="I61" s="143"/>
-      <c r="J61" s="143"/>
-      <c r="K61" s="143">
+      <c r="H61" s="134"/>
+      <c r="I61" s="134"/>
+      <c r="J61" s="134"/>
+      <c r="K61" s="134">
         <v>6000</v>
       </c>
-      <c r="L61" s="143" t="s">
+      <c r="L61" s="134" t="s">
         <v>129</v>
       </c>
-      <c r="M61" s="143"/>
-      <c r="N61" s="143"/>
-      <c r="O61" s="143"/>
-      <c r="P61" s="143"/>
-      <c r="Q61" s="143">
+      <c r="M61" s="134"/>
+      <c r="N61" s="134"/>
+      <c r="O61" s="134"/>
+      <c r="P61" s="134"/>
+      <c r="Q61" s="134">
         <v>7000</v>
       </c>
-      <c r="R61" s="143" t="s">
+      <c r="R61" s="134" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="62" spans="2:18">
-      <c r="B62" s="141"/>
-      <c r="C62" s="141" t="s">
+      <c r="B62" s="132"/>
+      <c r="C62" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="141" t="s">
+      <c r="D62" s="132" t="s">
         <v>130</v>
       </c>
-      <c r="E62" s="141">
+      <c r="E62" s="132">
         <f>K65</f>
         <v>101</v>
       </c>
-      <c r="F62" s="141"/>
-      <c r="G62" s="143"/>
-      <c r="H62" s="143"/>
-      <c r="I62" s="143"/>
-      <c r="J62" s="143"/>
-      <c r="K62" s="143"/>
-      <c r="L62" s="143"/>
-      <c r="M62" s="143"/>
-      <c r="N62" s="143"/>
-      <c r="O62" s="143"/>
-      <c r="P62" s="143"/>
-      <c r="Q62" s="143"/>
-      <c r="R62" s="143"/>
+      <c r="F62" s="132"/>
+      <c r="G62" s="134"/>
+      <c r="H62" s="134"/>
+      <c r="I62" s="134"/>
+      <c r="J62" s="134"/>
+      <c r="K62" s="134"/>
+      <c r="L62" s="134"/>
+      <c r="M62" s="134"/>
+      <c r="N62" s="134"/>
+      <c r="O62" s="134"/>
+      <c r="P62" s="134"/>
+      <c r="Q62" s="134"/>
+      <c r="R62" s="134"/>
     </row>
     <row r="63" spans="2:18" ht="17">
-      <c r="B63" s="141"/>
-      <c r="C63" s="141" t="s">
+      <c r="B63" s="132"/>
+      <c r="C63" s="132" t="s">
         <v>83</v>
       </c>
-      <c r="D63" s="141" t="s">
+      <c r="D63" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="E63" s="141">
+      <c r="E63" s="132">
         <f>E68</f>
         <v>26.6</v>
       </c>
-      <c r="F63" s="141"/>
-      <c r="G63" s="143" t="s">
+      <c r="F63" s="132"/>
+      <c r="G63" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="H63" s="143"/>
-      <c r="I63" s="143"/>
-      <c r="J63" s="143"/>
-      <c r="K63" s="143">
+      <c r="H63" s="134"/>
+      <c r="I63" s="134"/>
+      <c r="J63" s="134"/>
+      <c r="K63" s="134">
         <v>1909</v>
       </c>
-      <c r="L63" s="143" t="s">
+      <c r="L63" s="134" t="s">
         <v>132</v>
       </c>
-      <c r="M63" s="143"/>
-      <c r="N63" s="143"/>
-      <c r="O63" s="143"/>
-      <c r="P63" s="143"/>
-      <c r="Q63" s="143">
+      <c r="M63" s="134"/>
+      <c r="N63" s="134"/>
+      <c r="O63" s="134"/>
+      <c r="P63" s="134"/>
+      <c r="Q63" s="134">
         <v>2509</v>
       </c>
-      <c r="R63" s="143"/>
+      <c r="R63" s="134"/>
     </row>
     <row r="64" spans="2:18">
-      <c r="B64" s="141"/>
-      <c r="C64" s="141" t="s">
+      <c r="B64" s="132"/>
+      <c r="C64" s="132" t="s">
         <v>83</v>
       </c>
-      <c r="D64" s="141" t="s">
+      <c r="D64" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="E64" s="141">
+      <c r="E64" s="132">
         <f>E67/(E66/1000)</f>
         <v>1.9</v>
       </c>
-      <c r="F64" s="141"/>
-      <c r="G64" s="143"/>
-      <c r="H64" s="143"/>
-      <c r="I64" s="143"/>
-      <c r="J64" s="143"/>
-      <c r="K64" s="143"/>
-      <c r="L64" s="143"/>
-      <c r="M64" s="143"/>
-      <c r="N64" s="143"/>
-      <c r="O64" s="143"/>
-      <c r="P64" s="143"/>
-      <c r="Q64" s="143"/>
-      <c r="R64" s="143"/>
+      <c r="F64" s="132"/>
+      <c r="G64" s="134"/>
+      <c r="H64" s="134"/>
+      <c r="I64" s="134"/>
+      <c r="J64" s="134"/>
+      <c r="K64" s="134"/>
+      <c r="L64" s="134"/>
+      <c r="M64" s="134"/>
+      <c r="N64" s="134"/>
+      <c r="O64" s="134"/>
+      <c r="P64" s="134"/>
+      <c r="Q64" s="134"/>
+      <c r="R64" s="134"/>
     </row>
     <row r="65" spans="2:18" ht="17">
-      <c r="B65" s="141"/>
-      <c r="C65" s="141"/>
-      <c r="D65" s="141"/>
-      <c r="E65" s="141"/>
-      <c r="F65" s="141"/>
-      <c r="G65" s="143" t="s">
+      <c r="B65" s="132"/>
+      <c r="C65" s="132"/>
+      <c r="D65" s="132"/>
+      <c r="E65" s="132"/>
+      <c r="F65" s="132"/>
+      <c r="G65" s="134" t="s">
         <v>133</v>
       </c>
-      <c r="H65" s="143"/>
-      <c r="I65" s="143"/>
-      <c r="J65" s="143"/>
-      <c r="K65" s="143">
+      <c r="H65" s="134"/>
+      <c r="I65" s="134"/>
+      <c r="J65" s="134"/>
+      <c r="K65" s="134">
         <v>101</v>
       </c>
-      <c r="L65" s="143" t="s">
+      <c r="L65" s="134" t="s">
         <v>134</v>
       </c>
-      <c r="M65" s="143"/>
-      <c r="N65" s="143"/>
-      <c r="O65" s="143"/>
-      <c r="P65" s="143"/>
-      <c r="Q65" s="143">
+      <c r="M65" s="134"/>
+      <c r="N65" s="134"/>
+      <c r="O65" s="134"/>
+      <c r="P65" s="134"/>
+      <c r="Q65" s="134">
         <v>107</v>
       </c>
-      <c r="R65" s="143"/>
+      <c r="R65" s="134"/>
     </row>
     <row r="66" spans="2:18">
-      <c r="B66" s="141"/>
-      <c r="C66" s="141" t="s">
+      <c r="B66" s="132"/>
+      <c r="C66" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="D66" s="141" t="s">
+      <c r="D66" s="132" t="s">
         <v>136</v>
       </c>
-      <c r="E66" s="141">
+      <c r="E66" s="132">
         <f>E56*E58</f>
         <v>84000000</v>
       </c>
-      <c r="F66" s="141"/>
-      <c r="G66" s="143"/>
-      <c r="H66" s="143"/>
-      <c r="I66" s="143"/>
-      <c r="J66" s="143"/>
-      <c r="K66" s="143"/>
-      <c r="L66" s="143"/>
-      <c r="M66" s="143"/>
-      <c r="N66" s="143"/>
-      <c r="O66" s="143"/>
-      <c r="P66" s="143"/>
-      <c r="Q66" s="143"/>
-      <c r="R66" s="143"/>
+      <c r="F66" s="132"/>
+      <c r="G66" s="134"/>
+      <c r="H66" s="134"/>
+      <c r="I66" s="134"/>
+      <c r="J66" s="134"/>
+      <c r="K66" s="134"/>
+      <c r="L66" s="134"/>
+      <c r="M66" s="134"/>
+      <c r="N66" s="134"/>
+      <c r="O66" s="134"/>
+      <c r="P66" s="134"/>
+      <c r="Q66" s="134"/>
+      <c r="R66" s="134"/>
     </row>
     <row r="67" spans="2:18" ht="17">
-      <c r="B67" s="141"/>
-      <c r="C67" s="141" t="s">
+      <c r="B67" s="132"/>
+      <c r="C67" s="132" t="s">
         <v>137</v>
       </c>
-      <c r="D67" s="141" t="s">
+      <c r="D67" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="E67" s="141">
+      <c r="E67" s="132">
         <f>E66*K67</f>
         <v>159600</v>
       </c>
-      <c r="F67" s="141"/>
-      <c r="G67" s="143" t="s">
+      <c r="F67" s="132"/>
+      <c r="G67" s="134" t="s">
         <v>138</v>
       </c>
-      <c r="H67" s="143"/>
-      <c r="I67" s="143"/>
-      <c r="J67" s="143"/>
-      <c r="K67" s="143">
+      <c r="H67" s="134"/>
+      <c r="I67" s="134"/>
+      <c r="J67" s="134"/>
+      <c r="K67" s="134">
         <v>1.9E-3</v>
       </c>
-      <c r="L67" s="143" t="s">
+      <c r="L67" s="134" t="s">
         <v>139</v>
       </c>
-      <c r="M67" s="143"/>
-      <c r="N67" s="143"/>
-      <c r="O67" s="143"/>
-      <c r="P67" s="143"/>
-      <c r="Q67" s="143">
+      <c r="M67" s="134"/>
+      <c r="N67" s="134"/>
+      <c r="O67" s="134"/>
+      <c r="P67" s="134"/>
+      <c r="Q67" s="134">
         <v>7.6E-3</v>
       </c>
-      <c r="R67" s="143"/>
+      <c r="R67" s="134"/>
     </row>
     <row r="68" spans="2:18">
-      <c r="B68" s="141"/>
-      <c r="C68" s="141" t="s">
+      <c r="B68" s="132"/>
+      <c r="C68" s="132" t="s">
         <v>140</v>
       </c>
-      <c r="D68" s="141" t="s">
+      <c r="D68" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="E68" s="141">
+      <c r="E68" s="132">
         <f>E67/E56</f>
         <v>26.6</v>
       </c>
-      <c r="F68" s="141"/>
-      <c r="G68" s="143"/>
-      <c r="H68" s="143"/>
-      <c r="I68" s="143"/>
-      <c r="J68" s="143"/>
-      <c r="K68" s="143"/>
-      <c r="L68" s="143"/>
-      <c r="M68" s="143"/>
-      <c r="N68" s="143"/>
-      <c r="O68" s="143"/>
-      <c r="P68" s="143"/>
-      <c r="Q68" s="143"/>
-      <c r="R68" s="143"/>
+      <c r="F68" s="132"/>
+      <c r="G68" s="134"/>
+      <c r="H68" s="134"/>
+      <c r="I68" s="134"/>
+      <c r="J68" s="134"/>
+      <c r="K68" s="134"/>
+      <c r="L68" s="134"/>
+      <c r="M68" s="134"/>
+      <c r="N68" s="134"/>
+      <c r="O68" s="134"/>
+      <c r="P68" s="134"/>
+      <c r="Q68" s="134"/>
+      <c r="R68" s="134"/>
     </row>
     <row r="69" spans="2:18">
-      <c r="B69" s="141"/>
-      <c r="C69" s="141"/>
-      <c r="D69" s="141"/>
-      <c r="E69" s="141"/>
-      <c r="F69" s="141"/>
-      <c r="G69" s="143" t="s">
+      <c r="B69" s="132"/>
+      <c r="C69" s="132"/>
+      <c r="D69" s="132"/>
+      <c r="E69" s="132"/>
+      <c r="F69" s="132"/>
+      <c r="G69" s="134" t="s">
         <v>141</v>
       </c>
-      <c r="H69" s="143"/>
-      <c r="I69" s="143"/>
-      <c r="J69" s="143"/>
-      <c r="K69" s="143">
+      <c r="H69" s="134"/>
+      <c r="I69" s="134"/>
+      <c r="J69" s="134"/>
+      <c r="K69" s="134">
         <v>15</v>
       </c>
-      <c r="L69" s="143" t="s">
+      <c r="L69" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="M69" s="143"/>
-      <c r="N69" s="143"/>
-      <c r="O69" s="143"/>
-      <c r="P69" s="143"/>
-      <c r="Q69" s="143">
+      <c r="M69" s="134"/>
+      <c r="N69" s="134"/>
+      <c r="O69" s="134"/>
+      <c r="P69" s="134"/>
+      <c r="Q69" s="134">
         <v>15</v>
       </c>
-      <c r="R69" s="143" t="s">
+      <c r="R69" s="134" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="2:18">
-      <c r="B70" s="141"/>
-      <c r="C70" s="141"/>
-      <c r="D70" s="141"/>
-      <c r="E70" s="141"/>
-      <c r="F70" s="141"/>
-      <c r="G70" s="144" t="s">
+      <c r="B70" s="132"/>
+      <c r="C70" s="132"/>
+      <c r="D70" s="132"/>
+      <c r="E70" s="132"/>
+      <c r="F70" s="132"/>
+      <c r="G70" s="135" t="s">
         <v>142</v>
       </c>
-      <c r="H70" s="143"/>
-      <c r="I70" s="143"/>
-      <c r="J70" s="143"/>
-      <c r="K70" s="143"/>
-      <c r="L70" s="143"/>
-      <c r="M70" s="143"/>
-      <c r="N70" s="143"/>
-      <c r="O70" s="143"/>
-      <c r="P70" s="143"/>
-      <c r="Q70" s="143"/>
-      <c r="R70" s="143"/>
+      <c r="H70" s="134"/>
+      <c r="I70" s="134"/>
+      <c r="J70" s="134"/>
+      <c r="K70" s="134"/>
+      <c r="L70" s="134"/>
+      <c r="M70" s="134"/>
+      <c r="N70" s="134"/>
+      <c r="O70" s="134"/>
+      <c r="P70" s="134"/>
+      <c r="Q70" s="134"/>
+      <c r="R70" s="134"/>
     </row>
     <row r="71" spans="2:18">
-      <c r="B71" s="141"/>
-      <c r="C71" s="141"/>
-      <c r="D71" s="141"/>
-      <c r="E71" s="141"/>
-      <c r="F71" s="141"/>
-      <c r="G71" s="143"/>
-      <c r="H71" s="143"/>
-      <c r="I71" s="143"/>
-      <c r="J71" s="143"/>
-      <c r="K71" s="143"/>
-      <c r="L71" s="143"/>
-      <c r="M71" s="143"/>
-      <c r="N71" s="143"/>
-      <c r="O71" s="143"/>
-      <c r="P71" s="143"/>
-      <c r="Q71" s="143"/>
-      <c r="R71" s="143"/>
+      <c r="B71" s="132"/>
+      <c r="C71" s="132"/>
+      <c r="D71" s="132"/>
+      <c r="E71" s="132"/>
+      <c r="F71" s="132"/>
+      <c r="G71" s="134"/>
+      <c r="H71" s="134"/>
+      <c r="I71" s="134"/>
+      <c r="J71" s="134"/>
+      <c r="K71" s="134"/>
+      <c r="L71" s="134"/>
+      <c r="M71" s="134"/>
+      <c r="N71" s="134"/>
+      <c r="O71" s="134"/>
+      <c r="P71" s="134"/>
+      <c r="Q71" s="134"/>
+      <c r="R71" s="134"/>
     </row>
     <row r="72" spans="2:18">
-      <c r="B72" s="141"/>
-      <c r="C72" s="141"/>
-      <c r="D72" s="141"/>
-      <c r="E72" s="141"/>
-      <c r="F72" s="141"/>
-      <c r="G72" s="143" t="s">
+      <c r="B72" s="132"/>
+      <c r="C72" s="132"/>
+      <c r="D72" s="132"/>
+      <c r="E72" s="132"/>
+      <c r="F72" s="132"/>
+      <c r="G72" s="134" t="s">
         <v>143</v>
       </c>
-      <c r="H72" s="143"/>
-      <c r="I72" s="143"/>
-      <c r="J72" s="143"/>
-      <c r="K72" s="143">
+      <c r="H72" s="134"/>
+      <c r="I72" s="134"/>
+      <c r="J72" s="134"/>
+      <c r="K72" s="134">
         <v>2.5</v>
       </c>
-      <c r="L72" s="143" t="s">
+      <c r="L72" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="M72" s="143"/>
-      <c r="N72" s="143"/>
-      <c r="O72" s="143"/>
-      <c r="P72" s="143"/>
-      <c r="Q72" s="143">
+      <c r="M72" s="134"/>
+      <c r="N72" s="134"/>
+      <c r="O72" s="134"/>
+      <c r="P72" s="134"/>
+      <c r="Q72" s="134">
         <v>2.5</v>
       </c>
-      <c r="R72" s="143" t="s">
+      <c r="R72" s="134" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="73" spans="2:18">
-      <c r="B73" s="141"/>
-      <c r="C73" s="141"/>
-      <c r="D73" s="141"/>
-      <c r="E73" s="141"/>
-      <c r="F73" s="141"/>
-      <c r="G73" s="141"/>
-      <c r="H73" s="141"/>
-      <c r="I73" s="141"/>
-      <c r="J73" s="141"/>
-      <c r="K73" s="141"/>
-      <c r="L73" s="141"/>
-      <c r="M73" s="141"/>
-      <c r="N73" s="141"/>
-      <c r="O73" s="141"/>
-      <c r="P73" s="141"/>
-      <c r="Q73" s="141"/>
-      <c r="R73" s="141"/>
+      <c r="B73" s="132"/>
+      <c r="C73" s="132"/>
+      <c r="D73" s="132"/>
+      <c r="E73" s="132"/>
+      <c r="F73" s="132"/>
+      <c r="G73" s="132"/>
+      <c r="H73" s="132"/>
+      <c r="I73" s="132"/>
+      <c r="J73" s="132"/>
+      <c r="K73" s="132"/>
+      <c r="L73" s="132"/>
+      <c r="M73" s="132"/>
+      <c r="N73" s="132"/>
+      <c r="O73" s="132"/>
+      <c r="P73" s="132"/>
+      <c r="Q73" s="132"/>
+      <c r="R73" s="132"/>
     </row>
     <row r="74" spans="2:18">
-      <c r="B74" s="141"/>
-      <c r="C74" s="141"/>
-      <c r="D74" s="141"/>
-      <c r="E74" s="141"/>
-      <c r="F74" s="141"/>
-      <c r="G74" s="141"/>
-      <c r="H74" s="141"/>
-      <c r="I74" s="141"/>
-      <c r="J74" s="141"/>
-      <c r="K74" s="141"/>
-      <c r="L74" s="141"/>
-      <c r="M74" s="141"/>
-      <c r="N74" s="141"/>
-      <c r="O74" s="141"/>
-      <c r="P74" s="141"/>
-      <c r="Q74" s="141"/>
-      <c r="R74" s="141"/>
+      <c r="B74" s="132"/>
+      <c r="C74" s="132"/>
+      <c r="D74" s="132"/>
+      <c r="E74" s="132"/>
+      <c r="F74" s="132"/>
+      <c r="G74" s="132"/>
+      <c r="H74" s="132"/>
+      <c r="I74" s="132"/>
+      <c r="J74" s="132"/>
+      <c r="K74" s="132"/>
+      <c r="L74" s="132"/>
+      <c r="M74" s="132"/>
+      <c r="N74" s="132"/>
+      <c r="O74" s="132"/>
+      <c r="P74" s="132"/>
+      <c r="Q74" s="132"/>
+      <c r="R74" s="132"/>
     </row>
     <row r="75" spans="2:18">
-      <c r="B75" s="141"/>
-      <c r="C75" s="141"/>
-      <c r="D75" s="141"/>
-      <c r="E75" s="141"/>
-      <c r="F75" s="141"/>
-      <c r="G75" s="141"/>
-      <c r="H75" s="141"/>
-      <c r="I75" s="141"/>
-      <c r="J75" s="141"/>
-      <c r="K75" s="141"/>
-      <c r="L75" s="141"/>
-      <c r="M75" s="141"/>
-      <c r="N75" s="141"/>
-      <c r="O75" s="141"/>
-      <c r="P75" s="141"/>
-      <c r="Q75" s="141"/>
-      <c r="R75" s="141"/>
+      <c r="B75" s="132"/>
+      <c r="C75" s="132"/>
+      <c r="D75" s="132"/>
+      <c r="E75" s="132"/>
+      <c r="F75" s="132"/>
+      <c r="G75" s="132"/>
+      <c r="H75" s="132"/>
+      <c r="I75" s="132"/>
+      <c r="J75" s="132"/>
+      <c r="K75" s="132"/>
+      <c r="L75" s="132"/>
+      <c r="M75" s="132"/>
+      <c r="N75" s="132"/>
+      <c r="O75" s="132"/>
+      <c r="P75" s="132"/>
+      <c r="Q75" s="132"/>
+      <c r="R75" s="132"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
